--- a/src/resources/DSA_Day-wise.xlsx
+++ b/src/resources/DSA_Day-wise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="628">
   <si>
     <r>
       <rPr>
@@ -2034,24 +2034,6 @@
       </rPr>
       <t>READY🎊</t>
     </r>
-  </si>
-  <si>
-    <t>Day-1</t>
-  </si>
-  <si>
-    <t>Day-2</t>
-  </si>
-  <si>
-    <t>Day-3</t>
-  </si>
-  <si>
-    <t>Day-4</t>
-  </si>
-  <si>
-    <t>Day-5</t>
-  </si>
-  <si>
-    <t>Day-6</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2573,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2632,6 +2614,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2675,7 +2663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2809,6 +2797,7 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3027,8 +3016,8 @@
   </sheetPr>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="12.3"/>
@@ -3547,24 +3536,12 @@
         <v>27</v>
       </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>629</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>630</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>632</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>633</v>
-      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
@@ -3618,7 +3595,7 @@
       <c r="A19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="28"/>
